--- a/HW2/data.xlsx
+++ b/HW2/data.xlsx
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,8 +124,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,6 +254,48 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0685254374115139E-2"/>
+                  <c:y val="-4.1075469014649028E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0463678516228747E-2"/>
+                  <c:y val="3.4458192725909262E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -381,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1751148048"/>
-        <c:axId val="-1751150224"/>
+        <c:axId val="-85397888"/>
+        <c:axId val="-85393536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1751148048"/>
+        <c:axId val="-85397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,12 +539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751150224"/>
+        <c:crossAx val="-85393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1751150224"/>
+        <c:axId val="-85393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,9 +589,8 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Taken</a:t>
+                  <a:t> Taken (Average of 3 runs)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -620,7 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751148048"/>
+        <c:crossAx val="-85397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -842,11 +883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1751149136"/>
-        <c:axId val="-1751147504"/>
+        <c:axId val="-85397344"/>
+        <c:axId val="-85401152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1751149136"/>
+        <c:axId val="-85397344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,12 +998,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751147504"/>
+        <c:crossAx val="-85401152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1751147504"/>
+        <c:axId val="-85401152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751149136"/>
+        <c:crossAx val="-85397344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2580,7 +2621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HW2/data.xlsx
+++ b/HW2/data.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,22 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="17">
-  <si>
-    <t>run number</t>
-  </si>
-  <si>
-    <t>number of threads</t>
-  </si>
-  <si>
-    <t>kernel size</t>
-  </si>
-  <si>
-    <t>image size</t>
-  </si>
-  <si>
-    <t>convolution time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="20">
   <si>
     <t>3x3</t>
   </si>
@@ -66,9 +51,6 @@
     <t>parallel</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>windows</t>
   </si>
   <si>
@@ -79,6 +61,33 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Number of Threads</t>
+  </si>
+  <si>
+    <t>Run Number</t>
+  </si>
+  <si>
+    <t>Convolution Time</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Linux subsystem, outer for loop, automated</t>
+  </si>
+  <si>
+    <t>Kernel Size</t>
+  </si>
+  <si>
+    <t>Image Size</t>
   </si>
 </sst>
 </file>
@@ -117,16 +126,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -180,12 +197,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Parallel</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Convolution Data</a:t>
+              <a:t>Average Time Taken (3 runs) [Cores = 4]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -423,11 +436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-85397888"/>
-        <c:axId val="-85393536"/>
+        <c:axId val="947807088"/>
+        <c:axId val="947802736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-85397888"/>
+        <c:axId val="947807088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +552,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85393536"/>
+        <c:crossAx val="947802736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-85393536"/>
+        <c:axId val="947802736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,66 +577,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Taken (Average of 3 runs)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -661,7 +614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85397888"/>
+        <c:crossAx val="947807088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -745,15 +698,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Parallel</a:t>
+              <a:t>Speedup [Cores</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Convolution Data</a:t>
+              <a:t> = 4]</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,59 +771,238 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7272038756349483E-2"/>
+                  <c:y val="-3.7882219014794973E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2247163134458941E-2"/>
+                  <c:y val="-2.7993468752976682E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3955289170943183E-2"/>
+                  <c:y val="-4.1178469102067738E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$37:$F$97</c:f>
+              <c:f>Sheet1!$G$37:$G$97</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1774.6599999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>865.76900000000012</c:v>
+                  <c:v>2.0498077431739872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>592.08266666666668</c:v>
+                  <c:v>2.9973179420891674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>479.84699999999998</c:v>
+                  <c:v>3.698387194251501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>476.57833333333338</c:v>
+                  <c:v>3.7237530031789103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>469.48033333333336</c:v>
+                  <c:v>3.7800518445572084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>453.11733333333331</c:v>
+                  <c:v>3.9165573008315726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>456.7643333333333</c:v>
+                  <c:v>3.8852858476252887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>452.78700000000003</c:v>
+                  <c:v>3.9194146475053384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>452.78633333333329</c:v>
+                  <c:v>3.9194204183135679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>454.22566666666671</c:v>
+                  <c:v>3.9070007052294851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.43333333333339</c:v>
+                  <c:v>3.948661277163835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>447.59233333333333</c:v>
+                  <c:v>3.9649025862075384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>451.72666666666669</c:v>
+                  <c:v>3.9286146489765192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>454.55300000000005</c:v>
+                  <c:v>3.9041871904926371</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>450.34266666666667</c:v>
+                  <c:v>3.9406881278552328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,11 +1017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-85397344"/>
-        <c:axId val="-85401152"/>
+        <c:axId val="947806000"/>
+        <c:axId val="947808176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-85397344"/>
+        <c:axId val="947806000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,6 +1067,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -962,6 +1097,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -998,12 +1134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85401152"/>
+        <c:crossAx val="947808176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-85401152"/>
+        <c:axId val="947808176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,67 +1159,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Taken</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,7 +1196,538 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85397344"/>
+        <c:crossAx val="947806000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency [Cores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> = 4]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51245193579349679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74932948552229184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92459679856287524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93093825079472758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94501296113930211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97913932520789315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97132146190632218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9798536618763346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97985510457839198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97675017630737127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98716531929095874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99122564655188461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98215366224412981</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97604679762315927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9851720319638082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="947804912"/>
+        <c:axId val="947810896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="947804912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947810896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="947810896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947804912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1249,6 +1856,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2281,25 +2928,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2676525</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2313,27 +3478,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2344,7 +3504,39 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2617,2281 +3809,2578 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomLeft" sqref="A1:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1.60615</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1.59341</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1.5495399999999999</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1.50143</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1.53782</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1.5729900000000001</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1.54691</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1.50963</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1.4857499999999999</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1.50142</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>3.7060499999999998</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>3.6612900000000002</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>3.73813</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>3.6605699999999999</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>3.7637200000000002</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>3.77163</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>3.7894700000000001</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>3.7679999999999998</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>3.6682700000000001</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>3.63523</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>1221.01</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1155.78</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>1211.29</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1200.27</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>1140.5</v>
       </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1153.3900000000001</v>
       </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>1152.24</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>1218.74</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1152.58</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>1134.6099999999999</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>304.04500000000002</v>
       </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1238.52</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>1772.77</v>
       </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>1773.96</v>
       </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>1777.25</v>
       </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
         <f>AVERAGE(F34:F36)</f>
         <v>1774.6599999999999</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="7">
+        <f>$F$37/F37</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <f>G37/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>872.96600000000001</v>
       </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>864.37599999999998</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <v>859.96500000000003</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <f>AVERAGE(F38:F40)</f>
         <v>865.76900000000012</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="7">
+        <f>$F$37/F41</f>
+        <v>2.0498077431739872</v>
+      </c>
+      <c r="H41" s="7">
+        <f>G41/4</f>
+        <v>0.51245193579349679</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>589.10599999999999</v>
       </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>598.673</v>
       </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
         <v>588.46900000000005</v>
       </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
         <f>AVERAGE(F42:F44)</f>
         <v>592.08266666666668</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="7">
+        <f>$F$37/F45</f>
+        <v>2.9973179420891674</v>
+      </c>
+      <c r="H45" s="7">
+        <f>G45/4</f>
+        <v>0.74932948552229184</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>475.74400000000003</v>
       </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>480.95299999999997</v>
       </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>482.84399999999999</v>
       </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
         <f>AVERAGE(F46:F48)</f>
         <v>479.84699999999998</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="7">
+        <f>$F$37/F49</f>
+        <v>3.698387194251501</v>
+      </c>
+      <c r="H49" s="7">
+        <f>G49/4</f>
+        <v>0.92459679856287524</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>474.38900000000001</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>481.125</v>
       </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>474.221</v>
       </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53" s="2">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
         <f>AVERAGE(F50:F52)</f>
         <v>476.57833333333338</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="7">
+        <f>$F$37/F53</f>
+        <v>3.7237530031789103</v>
+      </c>
+      <c r="H53" s="7">
+        <f>G53/4</f>
+        <v>0.93093825079472758</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>471.26400000000001</v>
       </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>464.62200000000001</v>
       </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>472.55500000000001</v>
       </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
         <f>AVERAGE(F54:F56)</f>
         <v>469.48033333333336</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="7">
+        <f>$F$37/F57</f>
+        <v>3.7800518445572084</v>
+      </c>
+      <c r="H57" s="7">
+        <f>G57/4</f>
+        <v>0.94501296113930211</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>462.75099999999998</v>
       </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>448.41699999999997</v>
       </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>448.18400000000003</v>
       </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2">
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
         <f>AVERAGE(F58:F60)</f>
         <v>453.11733333333331</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="7">
+        <f>$F$37/F61</f>
+        <v>3.9165573008315726</v>
+      </c>
+      <c r="H61" s="7">
+        <f>G61/4</f>
+        <v>0.97913932520789315</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>470.45600000000002</v>
       </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>455.94099999999997</v>
       </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
         <v>443.89600000000002</v>
       </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
         <f>AVERAGE(F62:F64)</f>
         <v>456.7643333333333</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="7">
+        <f>$F$37/F65</f>
+        <v>3.8852858476252887</v>
+      </c>
+      <c r="H65" s="7">
+        <f>G65/4</f>
+        <v>0.97132146190632218</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>451.34399999999999</v>
       </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>456.90499999999997</v>
       </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
         <v>450.11200000000002</v>
       </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C69" s="2">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
         <f>AVERAGE(F66:F68)</f>
         <v>452.78700000000003</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="7">
+        <f>$F$37/F69</f>
+        <v>3.9194146475053384</v>
+      </c>
+      <c r="H69" s="7">
+        <f>G69/4</f>
+        <v>0.9798536618763346</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <v>460.404</v>
       </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>445.18299999999999</v>
       </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>452.77199999999999</v>
       </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2">
         <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
         <f>AVERAGE(F70:F72)</f>
         <v>452.78633333333329</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="7">
+        <f>$F$37/F73</f>
+        <v>3.9194204183135679</v>
+      </c>
+      <c r="H73" s="7">
+        <f>G73/4</f>
+        <v>0.97985510457839198</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
         <v>460.90300000000002</v>
       </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>449.44799999999998</v>
       </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>452.32600000000002</v>
       </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
         <f>AVERAGE(F74:F76)</f>
         <v>454.22566666666671</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="7">
+        <f>$F$37/F77</f>
+        <v>3.9070007052294851</v>
+      </c>
+      <c r="H77" s="7">
+        <f>G77/4</f>
+        <v>0.97675017630737127</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>456.786</v>
       </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>446.39499999999998</v>
       </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
         <v>445.11900000000003</v>
       </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C81" s="2">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
         <f>AVERAGE(F78:F80)</f>
         <v>449.43333333333339</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="7">
+        <f>$F$37/F81</f>
+        <v>3.948661277163835</v>
+      </c>
+      <c r="H81" s="7">
+        <f>G81/4</f>
+        <v>0.98716531929095874</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>448.21699999999998</v>
       </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>445.75200000000001</v>
       </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1">
         <v>448.80799999999999</v>
       </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C85" s="2">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
         <f>AVERAGE(F82:F84)</f>
         <v>447.59233333333333</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="7">
+        <f>$F$37/F85</f>
+        <v>3.9649025862075384</v>
+      </c>
+      <c r="H85" s="7">
+        <f>G85/4</f>
+        <v>0.99122564655188461</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>449.67500000000001</v>
       </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>457.66899999999998</v>
       </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
         <v>447.83600000000001</v>
       </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
         <f>AVERAGE(F86:F88)</f>
         <v>451.72666666666669</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="7">
+        <f>$F$37/F89</f>
+        <v>3.9286146489765192</v>
+      </c>
+      <c r="H89" s="7">
+        <f>G89/4</f>
+        <v>0.98215366224412981</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
         <v>457.86500000000001</v>
       </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>444.54899999999998</v>
       </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1">
         <v>461.245</v>
       </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C93" s="2">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
         <f>AVERAGE(F90:F92)</f>
         <v>454.55300000000005</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="7">
+        <f>$F$37/F93</f>
+        <v>3.9041871904926371</v>
+      </c>
+      <c r="H93" s="7">
+        <f>G93/4</f>
+        <v>0.97604679762315927</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
         <v>449.06900000000002</v>
       </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
         <v>456.88299999999998</v>
       </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C96">
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
         <v>445.07600000000002</v>
       </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C97" s="2">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
         <f>AVERAGE(F94:F96)</f>
         <v>450.34266666666667</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>15</v>
+      <c r="G97" s="7">
+        <f>$F$37/F97</f>
+        <v>3.9406881278552328</v>
+      </c>
+      <c r="H97" s="7">
+        <f>G97/4</f>
+        <v>0.9851720319638082</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G97">
+  <autoFilter ref="A1:I97">
     <filterColumn colId="0">
       <filters>
         <filter val="avg"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4899,13 +6388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>